--- a/Data/Analysis Data/Comunas.xlsx
+++ b/Data/Analysis Data/Comunas.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DSA\Magister\Ciencia Abierta y Software Libre\DesarrolloVCMUSACH-master\Data\Analysis Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasal\Downloads\MapeoExtrauniversitariosUSACH-master\Data\Analysis Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB59D36-41D7-42A7-91A0-4B6ACC42AF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3046B22-387D-4AB9-9585-00F18E9D933D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>Comuna</t>
   </si>
@@ -234,13 +235,35 @@
   </si>
   <si>
     <t>Ñuñoa</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -281,10 +304,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -293,9 +317,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,19 +617,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="H4:K8"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -611,17 +639,20 @@
       <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>13502</v>
       </c>
@@ -631,17 +662,20 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>13402</v>
       </c>
@@ -651,17 +685,20 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>13403</v>
       </c>
@@ -671,17 +708,20 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>13301</v>
       </c>
@@ -691,17 +731,20 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>13503</v>
       </c>
@@ -711,17 +754,20 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>13602</v>
       </c>
@@ -731,17 +777,20 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13108</v>
       </c>
@@ -751,17 +800,20 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>13113</v>
       </c>
@@ -771,17 +823,20 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>13115</v>
       </c>
@@ -791,17 +846,20 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>13116</v>
       </c>
@@ -811,17 +869,20 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13118</v>
       </c>
@@ -831,17 +892,20 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>13504</v>
       </c>
@@ -851,17 +915,20 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13604</v>
       </c>
@@ -871,17 +938,20 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13404</v>
       </c>
@@ -891,17 +961,20 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13121</v>
       </c>
@@ -911,17 +984,20 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13605</v>
       </c>
@@ -931,17 +1007,20 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13122</v>
       </c>
@@ -951,17 +1030,20 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>13202</v>
       </c>
@@ -971,17 +1053,20 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>13124</v>
       </c>
@@ -991,17 +1076,20 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>13127</v>
       </c>
@@ -1011,17 +1099,20 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>13128</v>
       </c>
@@ -1031,17 +1122,20 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>13129</v>
       </c>
@@ -1051,17 +1145,20 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>13505</v>
       </c>
@@ -1071,17 +1168,20 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>13131</v>
       </c>
@@ -1091,17 +1191,20 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>13601</v>
       </c>
@@ -1111,17 +1214,20 @@
       <c r="C26" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>13303</v>
       </c>
@@ -1131,17 +1237,20 @@
       <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>13102</v>
       </c>
@@ -1151,17 +1260,20 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>13103</v>
       </c>
@@ -1171,17 +1283,20 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>13107</v>
       </c>
@@ -1191,17 +1306,20 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>13603</v>
       </c>
@@ -1211,17 +1329,20 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>13109</v>
       </c>
@@ -1231,17 +1352,20 @@
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>13110</v>
       </c>
@@ -1251,17 +1375,20 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>13111</v>
       </c>
@@ -1271,17 +1398,20 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>13112</v>
       </c>
@@ -1291,17 +1421,20 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>13501</v>
       </c>
@@ -1311,17 +1444,20 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>13401</v>
       </c>
@@ -1331,17 +1467,20 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>13132</v>
       </c>
@@ -1351,17 +1490,20 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>13104</v>
       </c>
@@ -1371,17 +1513,20 @@
       <c r="C39" s="3">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>13302</v>
       </c>
@@ -1391,17 +1536,20 @@
       <c r="C40" s="3">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>13117</v>
       </c>
@@ -1411,17 +1559,20 @@
       <c r="C41" s="3">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>13125</v>
       </c>
@@ -1431,17 +1582,20 @@
       <c r="C42" s="3">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>13130</v>
       </c>
@@ -1451,17 +1605,20 @@
       <c r="C43" s="3">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>13105</v>
       </c>
@@ -1471,17 +1628,20 @@
       <c r="C44" s="3">
         <v>3</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>13114</v>
       </c>
@@ -1491,17 +1651,20 @@
       <c r="C45" s="3">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>13203</v>
       </c>
@@ -1511,17 +1674,20 @@
       <c r="C46" s="3">
         <v>4</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>13123</v>
       </c>
@@ -1531,17 +1697,20 @@
       <c r="C47" s="3">
         <v>5</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>13201</v>
       </c>
@@ -1551,17 +1720,20 @@
       <c r="C48" s="3">
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>13126</v>
       </c>
@@ -1571,17 +1743,20 @@
       <c r="C49" s="3">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>13120</v>
       </c>
@@ -1591,17 +1766,20 @@
       <c r="C50" s="3">
         <v>7</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>13119</v>
       </c>
@@ -1611,17 +1789,20 @@
       <c r="C51" s="3">
         <v>13</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>13101</v>
       </c>
@@ -1631,17 +1812,20 @@
       <c r="C52" s="3">
         <v>22</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>13106</v>
       </c>
@@ -1651,24 +1835,617 @@
       <c r="C53" s="3">
         <v>23</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53" xr:uid="{3A31243B-6497-435B-BB9D-37991B11BB23}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+  <autoFilter ref="A1:G53" xr:uid="{3A31243B-6497-435B-BB9D-37991B11BB23}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
       <sortCondition ref="C1:C53"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A6EFE-7BDD-4E3D-81B0-58A432B576C0}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <f>(A2*100)/112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" ref="B3:B53" si="0">(A3*100)/112</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>112</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C31">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C36">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="C39">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="C40">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="C41">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="C42">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="C43">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6785714285714284</v>
+      </c>
+      <c r="C44">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>4</v>
+      </c>
+      <c r="B45" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="C45">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="C46">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="C47">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="C48">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="C49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="10">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="C50">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>13</v>
+      </c>
+      <c r="B51" s="10">
+        <f t="shared" si="0"/>
+        <v>11.607142857142858</v>
+      </c>
+      <c r="C51">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>22</v>
+      </c>
+      <c r="B52" s="10">
+        <f t="shared" si="0"/>
+        <v>19.642857142857142</v>
+      </c>
+      <c r="C52">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>23</v>
+      </c>
+      <c r="B53" s="10">
+        <f t="shared" si="0"/>
+        <v>20.535714285714285</v>
+      </c>
+      <c r="C53">
+        <v>20.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
